--- a/Задание 9/9_12_RES9_Regress_Trashko_2023.xlsx
+++ b/Задание 9/9_12_RES9_Regress_Trashko_2023.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="-15" windowWidth="19425" windowHeight="10815" tabRatio="804" activeTab="3"/>
+    <workbookView xWindow="2895" yWindow="720" windowWidth="18855" windowHeight="10770" tabRatio="804" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="9-data" sheetId="6" r:id="rId1"/>
@@ -622,7 +622,7 @@
     <t>На отклик влияют содержание калия, нитратов и подвижного фосфора, так как они имеют ненулевые коэффициенты в уравнениях. Но нельзя полностью игнорировать вклад других свойств, так как полная модель лучше остальных описывает зависимость отклика.</t>
   </si>
   <si>
-    <t>Yield = 7,317 (ц/га) + 0,082 (ц/га) * K2O (мг/100г) + 0,855 (ц/га) * NO3 (мг/100г) + 0,113 (ц/га) * P2O5 (мг/100г)</t>
+    <t>Yield = 7,317 (ц/га) + 0,082 (ц*100г/га*мг) * K2O (мг/100г) + 0,855 (ц*100г/га*мг) * NO3 (мг/100г) + 0,113 (ц*100г/га*мг) * P2O5 (мг/100г)</t>
   </si>
 </sst>
 </file>
@@ -1702,32 +1702,62 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1735,10 +1765,64 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1794,6 +1878,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1830,134 +1932,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2268,7 +2268,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2278,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:Q40"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2310,12 +2310,12 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="243" t="s">
+      <c r="D4" s="196" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="244" t="s">
+      <c r="D5" s="197" t="s">
         <v>96</v>
       </c>
       <c r="G5" s="7">
@@ -2375,14 +2375,14 @@
       <c r="F7" s="6">
         <v>22.61</v>
       </c>
-      <c r="H7" s="242" t="s">
+      <c r="H7" s="207" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="245"/>
-      <c r="M7" s="246"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="209"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -2403,12 +2403,12 @@
       <c r="F8" s="6">
         <v>22.03</v>
       </c>
-      <c r="H8" s="247"/>
-      <c r="I8" s="248"/>
-      <c r="J8" s="248"/>
-      <c r="K8" s="248"/>
-      <c r="L8" s="248"/>
-      <c r="M8" s="249"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="212"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -2429,12 +2429,12 @@
       <c r="F9" s="6">
         <v>20.43</v>
       </c>
-      <c r="H9" s="247"/>
-      <c r="I9" s="248"/>
-      <c r="J9" s="248"/>
-      <c r="K9" s="248"/>
-      <c r="L9" s="248"/>
-      <c r="M9" s="249"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="212"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -2455,12 +2455,12 @@
       <c r="F10" s="6">
         <v>20.47</v>
       </c>
-      <c r="H10" s="247"/>
-      <c r="I10" s="248"/>
-      <c r="J10" s="248"/>
-      <c r="K10" s="248"/>
-      <c r="L10" s="248"/>
-      <c r="M10" s="249"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="212"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -2481,12 +2481,12 @@
       <c r="F11" s="6">
         <v>21.48</v>
       </c>
-      <c r="H11" s="247"/>
-      <c r="I11" s="248"/>
-      <c r="J11" s="248"/>
-      <c r="K11" s="248"/>
-      <c r="L11" s="248"/>
-      <c r="M11" s="249"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="212"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -2507,12 +2507,12 @@
       <c r="F12" s="6">
         <v>20.79</v>
       </c>
-      <c r="H12" s="247"/>
-      <c r="I12" s="248"/>
-      <c r="J12" s="248"/>
-      <c r="K12" s="248"/>
-      <c r="L12" s="248"/>
-      <c r="M12" s="249"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="212"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -2533,12 +2533,12 @@
       <c r="F13" s="6">
         <v>20.5</v>
       </c>
-      <c r="H13" s="247"/>
-      <c r="I13" s="248"/>
-      <c r="J13" s="248"/>
-      <c r="K13" s="248"/>
-      <c r="L13" s="248"/>
-      <c r="M13" s="249"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="211"/>
+      <c r="L13" s="211"/>
+      <c r="M13" s="212"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -2559,12 +2559,12 @@
       <c r="F14" s="6">
         <v>21.34</v>
       </c>
-      <c r="H14" s="247"/>
-      <c r="I14" s="248"/>
-      <c r="J14" s="248"/>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
-      <c r="M14" s="249"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="211"/>
+      <c r="L14" s="211"/>
+      <c r="M14" s="212"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -2585,12 +2585,12 @@
       <c r="F15" s="6">
         <v>19.79</v>
       </c>
-      <c r="H15" s="247"/>
-      <c r="I15" s="248"/>
-      <c r="J15" s="248"/>
-      <c r="K15" s="248"/>
-      <c r="L15" s="248"/>
-      <c r="M15" s="249"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="211"/>
+      <c r="L15" s="211"/>
+      <c r="M15" s="212"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -2611,12 +2611,12 @@
       <c r="F16" s="6">
         <v>22.21</v>
       </c>
-      <c r="H16" s="247"/>
-      <c r="I16" s="248"/>
-      <c r="J16" s="248"/>
-      <c r="K16" s="248"/>
-      <c r="L16" s="248"/>
-      <c r="M16" s="249"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="211"/>
+      <c r="K16" s="211"/>
+      <c r="L16" s="211"/>
+      <c r="M16" s="212"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -2637,12 +2637,12 @@
       <c r="F17" s="6">
         <v>20.85</v>
       </c>
-      <c r="H17" s="247"/>
-      <c r="I17" s="248"/>
-      <c r="J17" s="248"/>
-      <c r="K17" s="248"/>
-      <c r="L17" s="248"/>
-      <c r="M17" s="249"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="211"/>
+      <c r="J17" s="211"/>
+      <c r="K17" s="211"/>
+      <c r="L17" s="211"/>
+      <c r="M17" s="212"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -2663,12 +2663,12 @@
       <c r="F18" s="6">
         <v>21.37</v>
       </c>
-      <c r="H18" s="247"/>
-      <c r="I18" s="248"/>
-      <c r="J18" s="248"/>
-      <c r="K18" s="248"/>
-      <c r="L18" s="248"/>
-      <c r="M18" s="249"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="211"/>
+      <c r="J18" s="211"/>
+      <c r="K18" s="211"/>
+      <c r="L18" s="211"/>
+      <c r="M18" s="212"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -2689,12 +2689,12 @@
       <c r="F19" s="6">
         <v>20.72</v>
       </c>
-      <c r="H19" s="250"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="251"/>
-      <c r="K19" s="251"/>
-      <c r="L19" s="251"/>
-      <c r="M19" s="252"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="215"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -2798,14 +2798,14 @@
       <c r="F23" s="6">
         <v>21.23</v>
       </c>
-      <c r="H23" s="242" t="s">
+      <c r="H23" s="207" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="245"/>
-      <c r="J23" s="245"/>
-      <c r="K23" s="245"/>
-      <c r="L23" s="245"/>
-      <c r="M23" s="246"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="208"/>
+      <c r="L23" s="208"/>
+      <c r="M23" s="209"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
@@ -2826,12 +2826,12 @@
       <c r="F24" s="6">
         <v>21.16</v>
       </c>
-      <c r="H24" s="247"/>
-      <c r="I24" s="248"/>
-      <c r="J24" s="248"/>
-      <c r="K24" s="248"/>
-      <c r="L24" s="248"/>
-      <c r="M24" s="249"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="211"/>
+      <c r="K24" s="211"/>
+      <c r="L24" s="211"/>
+      <c r="M24" s="212"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -2852,12 +2852,12 @@
       <c r="F25" s="6">
         <v>21.09</v>
       </c>
-      <c r="H25" s="247"/>
-      <c r="I25" s="248"/>
-      <c r="J25" s="248"/>
-      <c r="K25" s="248"/>
-      <c r="L25" s="248"/>
-      <c r="M25" s="249"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="211"/>
+      <c r="M25" s="212"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -2878,12 +2878,12 @@
       <c r="F26" s="6">
         <v>20.03</v>
       </c>
-      <c r="H26" s="250"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="251"/>
-      <c r="K26" s="251"/>
-      <c r="L26" s="251"/>
-      <c r="M26" s="252"/>
+      <c r="H26" s="213"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="214"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="214"/>
+      <c r="M26" s="215"/>
     </row>
     <row r="27" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -3006,20 +3006,20 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="241"/>
-      <c r="B33" s="241"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="241"/>
+      <c r="A33" s="195"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
     </row>
     <row r="34" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="241"/>
-      <c r="B34" s="241"/>
-      <c r="C34" s="241"/>
-      <c r="D34" s="241"/>
-      <c r="E34" s="241"/>
-      <c r="F34" s="241"/>
+      <c r="A34" s="195"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -3061,62 +3061,62 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="263" t="s">
+      <c r="B38" s="229" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="264"/>
-      <c r="D38" s="264"/>
-      <c r="E38" s="264"/>
-      <c r="F38" s="264"/>
-      <c r="G38" s="264"/>
-      <c r="H38" s="264"/>
-      <c r="I38" s="264"/>
-      <c r="J38" s="264"/>
-      <c r="K38" s="264"/>
-      <c r="L38" s="264"/>
-      <c r="M38" s="264"/>
-      <c r="N38" s="264"/>
-      <c r="O38" s="264"/>
-      <c r="P38" s="264"/>
-      <c r="Q38" s="265"/>
+      <c r="C38" s="230"/>
+      <c r="D38" s="230"/>
+      <c r="E38" s="230"/>
+      <c r="F38" s="230"/>
+      <c r="G38" s="230"/>
+      <c r="H38" s="230"/>
+      <c r="I38" s="230"/>
+      <c r="J38" s="230"/>
+      <c r="K38" s="230"/>
+      <c r="L38" s="230"/>
+      <c r="M38" s="230"/>
+      <c r="N38" s="230"/>
+      <c r="O38" s="230"/>
+      <c r="P38" s="230"/>
+      <c r="Q38" s="231"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
-      <c r="B39" s="266"/>
-      <c r="C39" s="267"/>
-      <c r="D39" s="267"/>
-      <c r="E39" s="267"/>
-      <c r="F39" s="267"/>
-      <c r="G39" s="267"/>
-      <c r="H39" s="267"/>
-      <c r="I39" s="267"/>
-      <c r="J39" s="267"/>
-      <c r="K39" s="267"/>
-      <c r="L39" s="267"/>
-      <c r="M39" s="267"/>
-      <c r="N39" s="267"/>
-      <c r="O39" s="267"/>
-      <c r="P39" s="267"/>
-      <c r="Q39" s="268"/>
+      <c r="B39" s="232"/>
+      <c r="C39" s="233"/>
+      <c r="D39" s="233"/>
+      <c r="E39" s="233"/>
+      <c r="F39" s="233"/>
+      <c r="G39" s="233"/>
+      <c r="H39" s="233"/>
+      <c r="I39" s="233"/>
+      <c r="J39" s="233"/>
+      <c r="K39" s="233"/>
+      <c r="L39" s="233"/>
+      <c r="M39" s="233"/>
+      <c r="N39" s="233"/>
+      <c r="O39" s="233"/>
+      <c r="P39" s="233"/>
+      <c r="Q39" s="234"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
-      <c r="B40" s="269"/>
-      <c r="C40" s="270"/>
-      <c r="D40" s="270"/>
-      <c r="E40" s="270"/>
-      <c r="F40" s="270"/>
-      <c r="G40" s="270"/>
-      <c r="H40" s="270"/>
-      <c r="I40" s="270"/>
-      <c r="J40" s="270"/>
-      <c r="K40" s="270"/>
-      <c r="L40" s="270"/>
-      <c r="M40" s="270"/>
-      <c r="N40" s="270"/>
-      <c r="O40" s="270"/>
-      <c r="P40" s="270"/>
-      <c r="Q40" s="271"/>
+      <c r="B40" s="235"/>
+      <c r="C40" s="236"/>
+      <c r="D40" s="236"/>
+      <c r="E40" s="236"/>
+      <c r="F40" s="236"/>
+      <c r="G40" s="236"/>
+      <c r="H40" s="236"/>
+      <c r="I40" s="236"/>
+      <c r="J40" s="236"/>
+      <c r="K40" s="236"/>
+      <c r="L40" s="236"/>
+      <c r="M40" s="236"/>
+      <c r="N40" s="236"/>
+      <c r="O40" s="236"/>
+      <c r="P40" s="236"/>
+      <c r="Q40" s="237"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
@@ -3174,12 +3174,12 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="207" t="s">
+      <c r="B46" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="207"/>
-      <c r="D46" s="207"/>
-      <c r="E46" s="207"/>
+      <c r="C46" s="228"/>
+      <c r="D46" s="228"/>
+      <c r="E46" s="228"/>
       <c r="F46" s="18">
         <f>CORREL(A7:A32,F7:F32)</f>
         <v>0.17364703809754933</v>
@@ -3203,12 +3203,12 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
-      <c r="B47" s="206" t="s">
+      <c r="B47" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="206"/>
-      <c r="D47" s="206"/>
-      <c r="E47" s="206"/>
+      <c r="C47" s="227"/>
+      <c r="D47" s="227"/>
+      <c r="E47" s="227"/>
       <c r="F47" s="20" t="s">
         <v>99</v>
       </c>
@@ -3227,17 +3227,17 @@
     </row>
     <row r="48" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="206" t="s">
+      <c r="B48" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="206"/>
-      <c r="D48" s="206"/>
-      <c r="E48" s="206"/>
+      <c r="C48" s="227"/>
+      <c r="D48" s="227"/>
+      <c r="E48" s="227"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H48" s="253" t="s">
+      <c r="H48" s="198" t="s">
         <v>101</v>
       </c>
       <c r="I48" s="33" t="s">
@@ -3249,12 +3249,12 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
-      <c r="B49" s="207" t="s">
+      <c r="B49" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="207"/>
-      <c r="D49" s="207"/>
-      <c r="E49" s="207"/>
+      <c r="C49" s="228"/>
+      <c r="D49" s="228"/>
+      <c r="E49" s="228"/>
       <c r="F49" s="20">
         <f>F46*F46</f>
         <v>3.0153293840051748E-2</v>
@@ -3310,60 +3310,60 @@
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B53" s="204" t="s">
+      <c r="B53" s="216" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="204"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="204"/>
-      <c r="F53" s="204"/>
-      <c r="G53" s="204"/>
-      <c r="H53" s="204"/>
-      <c r="I53" s="204"/>
-      <c r="J53" s="204"/>
-      <c r="K53" s="204"/>
-      <c r="L53" s="204"/>
-      <c r="M53" s="204"/>
-      <c r="N53" s="204"/>
-      <c r="O53" s="204"/>
-      <c r="P53" s="204"/>
-      <c r="Q53" s="204"/>
+      <c r="C53" s="216"/>
+      <c r="D53" s="216"/>
+      <c r="E53" s="216"/>
+      <c r="F53" s="216"/>
+      <c r="G53" s="216"/>
+      <c r="H53" s="216"/>
+      <c r="I53" s="216"/>
+      <c r="J53" s="216"/>
+      <c r="K53" s="216"/>
+      <c r="L53" s="216"/>
+      <c r="M53" s="216"/>
+      <c r="N53" s="216"/>
+      <c r="O53" s="216"/>
+      <c r="P53" s="216"/>
+      <c r="Q53" s="216"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B54" s="204"/>
-      <c r="C54" s="204"/>
-      <c r="D54" s="204"/>
-      <c r="E54" s="204"/>
-      <c r="F54" s="204"/>
-      <c r="G54" s="204"/>
-      <c r="H54" s="204"/>
-      <c r="I54" s="204"/>
-      <c r="J54" s="204"/>
-      <c r="K54" s="204"/>
-      <c r="L54" s="204"/>
-      <c r="M54" s="204"/>
-      <c r="N54" s="204"/>
-      <c r="O54" s="204"/>
-      <c r="P54" s="204"/>
-      <c r="Q54" s="204"/>
+      <c r="B54" s="216"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="216"/>
+      <c r="E54" s="216"/>
+      <c r="F54" s="216"/>
+      <c r="G54" s="216"/>
+      <c r="H54" s="216"/>
+      <c r="I54" s="216"/>
+      <c r="J54" s="216"/>
+      <c r="K54" s="216"/>
+      <c r="L54" s="216"/>
+      <c r="M54" s="216"/>
+      <c r="N54" s="216"/>
+      <c r="O54" s="216"/>
+      <c r="P54" s="216"/>
+      <c r="Q54" s="216"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B55" s="204"/>
-      <c r="C55" s="204"/>
-      <c r="D55" s="204"/>
-      <c r="E55" s="204"/>
-      <c r="F55" s="204"/>
-      <c r="G55" s="204"/>
-      <c r="H55" s="204"/>
-      <c r="I55" s="204"/>
-      <c r="J55" s="204"/>
-      <c r="K55" s="204"/>
-      <c r="L55" s="204"/>
-      <c r="M55" s="204"/>
-      <c r="N55" s="204"/>
-      <c r="O55" s="204"/>
-      <c r="P55" s="204"/>
-      <c r="Q55" s="204"/>
+      <c r="B55" s="216"/>
+      <c r="C55" s="216"/>
+      <c r="D55" s="216"/>
+      <c r="E55" s="216"/>
+      <c r="F55" s="216"/>
+      <c r="G55" s="216"/>
+      <c r="H55" s="216"/>
+      <c r="I55" s="216"/>
+      <c r="J55" s="216"/>
+      <c r="K55" s="216"/>
+      <c r="L55" s="216"/>
+      <c r="M55" s="216"/>
+      <c r="N55" s="216"/>
+      <c r="O55" s="216"/>
+      <c r="P55" s="216"/>
+      <c r="Q55" s="216"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -3377,60 +3377,60 @@
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B61" s="205" t="s">
+      <c r="B61" s="217" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="205"/>
-      <c r="D61" s="205"/>
-      <c r="E61" s="205"/>
-      <c r="F61" s="205"/>
-      <c r="G61" s="205"/>
-      <c r="H61" s="205"/>
-      <c r="I61" s="205"/>
-      <c r="J61" s="205"/>
-      <c r="K61" s="205"/>
-      <c r="L61" s="205"/>
-      <c r="M61" s="205"/>
-      <c r="N61" s="205"/>
-      <c r="O61" s="205"/>
-      <c r="P61" s="205"/>
-      <c r="Q61" s="205"/>
+      <c r="C61" s="217"/>
+      <c r="D61" s="217"/>
+      <c r="E61" s="217"/>
+      <c r="F61" s="217"/>
+      <c r="G61" s="217"/>
+      <c r="H61" s="217"/>
+      <c r="I61" s="217"/>
+      <c r="J61" s="217"/>
+      <c r="K61" s="217"/>
+      <c r="L61" s="217"/>
+      <c r="M61" s="217"/>
+      <c r="N61" s="217"/>
+      <c r="O61" s="217"/>
+      <c r="P61" s="217"/>
+      <c r="Q61" s="217"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B62" s="205"/>
-      <c r="C62" s="205"/>
-      <c r="D62" s="205"/>
-      <c r="E62" s="205"/>
-      <c r="F62" s="205"/>
-      <c r="G62" s="205"/>
-      <c r="H62" s="205"/>
-      <c r="I62" s="205"/>
-      <c r="J62" s="205"/>
-      <c r="K62" s="205"/>
-      <c r="L62" s="205"/>
-      <c r="M62" s="205"/>
-      <c r="N62" s="205"/>
-      <c r="O62" s="205"/>
-      <c r="P62" s="205"/>
-      <c r="Q62" s="205"/>
+      <c r="B62" s="217"/>
+      <c r="C62" s="217"/>
+      <c r="D62" s="217"/>
+      <c r="E62" s="217"/>
+      <c r="F62" s="217"/>
+      <c r="G62" s="217"/>
+      <c r="H62" s="217"/>
+      <c r="I62" s="217"/>
+      <c r="J62" s="217"/>
+      <c r="K62" s="217"/>
+      <c r="L62" s="217"/>
+      <c r="M62" s="217"/>
+      <c r="N62" s="217"/>
+      <c r="O62" s="217"/>
+      <c r="P62" s="217"/>
+      <c r="Q62" s="217"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B63" s="205"/>
-      <c r="C63" s="205"/>
-      <c r="D63" s="205"/>
-      <c r="E63" s="205"/>
-      <c r="F63" s="205"/>
-      <c r="G63" s="205"/>
-      <c r="H63" s="205"/>
-      <c r="I63" s="205"/>
-      <c r="J63" s="205"/>
-      <c r="K63" s="205"/>
-      <c r="L63" s="205"/>
-      <c r="M63" s="205"/>
-      <c r="N63" s="205"/>
-      <c r="O63" s="205"/>
-      <c r="P63" s="205"/>
-      <c r="Q63" s="205"/>
+      <c r="B63" s="217"/>
+      <c r="C63" s="217"/>
+      <c r="D63" s="217"/>
+      <c r="E63" s="217"/>
+      <c r="F63" s="217"/>
+      <c r="G63" s="217"/>
+      <c r="H63" s="217"/>
+      <c r="I63" s="217"/>
+      <c r="J63" s="217"/>
+      <c r="K63" s="217"/>
+      <c r="L63" s="217"/>
+      <c r="M63" s="217"/>
+      <c r="N63" s="217"/>
+      <c r="O63" s="217"/>
+      <c r="P63" s="217"/>
+      <c r="Q63" s="217"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
@@ -3447,78 +3447,78 @@
       <c r="B66" s="9"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B67" s="254" t="s">
+      <c r="B67" s="218" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="255"/>
-      <c r="D67" s="255"/>
-      <c r="E67" s="255"/>
-      <c r="F67" s="255"/>
-      <c r="G67" s="255"/>
-      <c r="H67" s="255"/>
-      <c r="I67" s="255"/>
-      <c r="J67" s="255"/>
-      <c r="K67" s="255"/>
-      <c r="L67" s="255"/>
-      <c r="M67" s="255"/>
-      <c r="N67" s="255"/>
-      <c r="O67" s="255"/>
-      <c r="P67" s="255"/>
-      <c r="Q67" s="256"/>
+      <c r="C67" s="219"/>
+      <c r="D67" s="219"/>
+      <c r="E67" s="219"/>
+      <c r="F67" s="219"/>
+      <c r="G67" s="219"/>
+      <c r="H67" s="219"/>
+      <c r="I67" s="219"/>
+      <c r="J67" s="219"/>
+      <c r="K67" s="219"/>
+      <c r="L67" s="219"/>
+      <c r="M67" s="219"/>
+      <c r="N67" s="219"/>
+      <c r="O67" s="219"/>
+      <c r="P67" s="219"/>
+      <c r="Q67" s="220"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B68" s="257"/>
-      <c r="C68" s="258"/>
-      <c r="D68" s="258"/>
-      <c r="E68" s="258"/>
-      <c r="F68" s="258"/>
-      <c r="G68" s="258"/>
-      <c r="H68" s="258"/>
-      <c r="I68" s="258"/>
-      <c r="J68" s="258"/>
-      <c r="K68" s="258"/>
-      <c r="L68" s="258"/>
-      <c r="M68" s="258"/>
-      <c r="N68" s="258"/>
-      <c r="O68" s="258"/>
-      <c r="P68" s="258"/>
-      <c r="Q68" s="259"/>
+      <c r="B68" s="221"/>
+      <c r="C68" s="222"/>
+      <c r="D68" s="222"/>
+      <c r="E68" s="222"/>
+      <c r="F68" s="222"/>
+      <c r="G68" s="222"/>
+      <c r="H68" s="222"/>
+      <c r="I68" s="222"/>
+      <c r="J68" s="222"/>
+      <c r="K68" s="222"/>
+      <c r="L68" s="222"/>
+      <c r="M68" s="222"/>
+      <c r="N68" s="222"/>
+      <c r="O68" s="222"/>
+      <c r="P68" s="222"/>
+      <c r="Q68" s="223"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B69" s="257"/>
-      <c r="C69" s="258"/>
-      <c r="D69" s="258"/>
-      <c r="E69" s="258"/>
-      <c r="F69" s="258"/>
-      <c r="G69" s="258"/>
-      <c r="H69" s="258"/>
-      <c r="I69" s="258"/>
-      <c r="J69" s="258"/>
-      <c r="K69" s="258"/>
-      <c r="L69" s="258"/>
-      <c r="M69" s="258"/>
-      <c r="N69" s="258"/>
-      <c r="O69" s="258"/>
-      <c r="P69" s="258"/>
-      <c r="Q69" s="259"/>
+      <c r="B69" s="221"/>
+      <c r="C69" s="222"/>
+      <c r="D69" s="222"/>
+      <c r="E69" s="222"/>
+      <c r="F69" s="222"/>
+      <c r="G69" s="222"/>
+      <c r="H69" s="222"/>
+      <c r="I69" s="222"/>
+      <c r="J69" s="222"/>
+      <c r="K69" s="222"/>
+      <c r="L69" s="222"/>
+      <c r="M69" s="222"/>
+      <c r="N69" s="222"/>
+      <c r="O69" s="222"/>
+      <c r="P69" s="222"/>
+      <c r="Q69" s="223"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B70" s="260"/>
-      <c r="C70" s="261"/>
-      <c r="D70" s="261"/>
-      <c r="E70" s="261"/>
-      <c r="F70" s="261"/>
-      <c r="G70" s="261"/>
-      <c r="H70" s="261"/>
-      <c r="I70" s="261"/>
-      <c r="J70" s="261"/>
-      <c r="K70" s="261"/>
-      <c r="L70" s="261"/>
-      <c r="M70" s="261"/>
-      <c r="N70" s="261"/>
-      <c r="O70" s="261"/>
-      <c r="P70" s="261"/>
-      <c r="Q70" s="262"/>
+      <c r="B70" s="224"/>
+      <c r="C70" s="225"/>
+      <c r="D70" s="225"/>
+      <c r="E70" s="225"/>
+      <c r="F70" s="225"/>
+      <c r="G70" s="225"/>
+      <c r="H70" s="225"/>
+      <c r="I70" s="225"/>
+      <c r="J70" s="225"/>
+      <c r="K70" s="225"/>
+      <c r="L70" s="225"/>
+      <c r="M70" s="225"/>
+      <c r="N70" s="225"/>
+      <c r="O70" s="225"/>
+      <c r="P70" s="225"/>
+      <c r="Q70" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4307,7 +4307,7 @@
         <v>30</v>
       </c>
       <c r="K7" s="135"/>
-      <c r="L7" s="273" t="s">
+      <c r="L7" s="200" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="2"/>
@@ -4316,46 +4316,46 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:18" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="210" t="s">
+      <c r="A8" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="216" t="s">
+      <c r="B8" s="241"/>
+      <c r="C8" s="246" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="218" t="s">
+      <c r="D8" s="248" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="218" t="s">
+      <c r="E8" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="220" t="s">
+      <c r="F8" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="218"/>
+      <c r="G8" s="248"/>
       <c r="H8" s="15" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="136"/>
-      <c r="L8" s="272"/>
+      <c r="L8" s="199"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:18" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="212"/>
-      <c r="B9" s="213"/>
-      <c r="C9" s="217"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="219"/>
+      <c r="A9" s="242"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="249"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="249"/>
       <c r="H9" s="15" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="137"/>
-      <c r="L9" s="273" t="s">
+      <c r="L9" s="200" t="s">
         <v>114</v>
       </c>
       <c r="M9" s="2"/>
@@ -4364,8 +4364,8 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:18" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="214"/>
-      <c r="B10" s="215"/>
+      <c r="A10" s="244"/>
+      <c r="B10" s="245"/>
       <c r="C10" s="47" t="s">
         <v>38</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>43</v>
       </c>
       <c r="K10" s="137"/>
-      <c r="L10" s="273" t="s">
+      <c r="L10" s="200" t="s">
         <v>115</v>
       </c>
       <c r="M10" s="2"/>
@@ -4409,14 +4409,14 @@
       <c r="E11" s="53">
         <v>6.9188000000000001</v>
       </c>
-      <c r="F11" s="222">
+      <c r="F11" s="252">
         <v>23.05</v>
       </c>
-      <c r="G11" s="238">
+      <c r="G11" s="274">
         <v>6.8869999999999996E-5</v>
       </c>
       <c r="K11" s="137"/>
-      <c r="L11" s="273" t="s">
+      <c r="L11" s="200" t="s">
         <v>116</v>
       </c>
       <c r="M11" s="2"/>
@@ -4440,10 +4440,10 @@
       <c r="E12" s="139">
         <v>0.30020000000000002</v>
       </c>
-      <c r="F12" s="223"/>
-      <c r="G12" s="239"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="275"/>
       <c r="K12" s="137"/>
-      <c r="L12" s="273" t="s">
+      <c r="L12" s="200" t="s">
         <v>117</v>
       </c>
       <c r="M12" s="2"/>
@@ -4470,10 +4470,10 @@
         <f t="shared" si="0"/>
         <v>7.2190000000000003</v>
       </c>
-      <c r="F13" s="224"/>
-      <c r="G13" s="240"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="276"/>
       <c r="K13" s="137"/>
-      <c r="L13" s="273" t="s">
+      <c r="L13" s="200" t="s">
         <v>118</v>
       </c>
       <c r="M13" s="2"/>
@@ -4485,7 +4485,7 @@
       <c r="A14" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="274" t="s">
+      <c r="L14" s="201" t="s">
         <v>119</v>
       </c>
       <c r="M14" s="2"/>
@@ -4590,7 +4590,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="K20" s="134"/>
-      <c r="L20" s="273" t="s">
+      <c r="L20" s="200" t="s">
         <v>126</v>
       </c>
       <c r="M20" s="2"/>
@@ -4625,7 +4625,7 @@
         <v>6.8869999999999996E-5</v>
       </c>
       <c r="K21" s="134"/>
-      <c r="L21" s="273" t="s">
+      <c r="L21" s="200" t="s">
         <v>127</v>
       </c>
       <c r="M21" s="2"/>
@@ -4646,7 +4646,7 @@
       <c r="H22" s="164"/>
       <c r="I22" s="161"/>
       <c r="K22" s="134"/>
-      <c r="L22" s="274" t="s">
+      <c r="L22" s="201" t="s">
         <v>128</v>
       </c>
       <c r="M22" s="2"/>
@@ -4660,16 +4660,16 @@
       <c r="A23" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="280" t="s">
+      <c r="B23" s="259" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="281"/>
-      <c r="D23" s="281"/>
-      <c r="E23" s="281"/>
-      <c r="F23" s="281"/>
-      <c r="G23" s="281"/>
-      <c r="H23" s="281"/>
-      <c r="I23" s="282"/>
+      <c r="C23" s="260"/>
+      <c r="D23" s="260"/>
+      <c r="E23" s="260"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="260"/>
+      <c r="H23" s="260"/>
+      <c r="I23" s="261"/>
       <c r="K23" s="134"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -4681,14 +4681,14 @@
     </row>
     <row r="24" spans="1:18" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="283"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="284"/>
-      <c r="E24" s="284"/>
-      <c r="F24" s="284"/>
-      <c r="G24" s="284"/>
-      <c r="H24" s="284"/>
-      <c r="I24" s="285"/>
+      <c r="B24" s="262"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="263"/>
+      <c r="F24" s="263"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="263"/>
+      <c r="I24" s="264"/>
       <c r="K24" s="134"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -4750,7 +4750,7 @@
       <c r="I27" s="44"/>
       <c r="J27" s="5"/>
       <c r="K27" s="135"/>
-      <c r="L27" s="273" t="s">
+      <c r="L27" s="200" t="s">
         <v>18</v>
       </c>
       <c r="M27" s="43"/>
@@ -4778,7 +4778,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="45"/>
       <c r="K28" s="136"/>
-      <c r="L28" s="273" t="s">
+      <c r="L28" s="200" t="s">
         <v>123</v>
       </c>
       <c r="M28" s="45"/>
@@ -4812,7 +4812,7 @@
       <c r="I29" s="72"/>
       <c r="J29" s="45"/>
       <c r="K29" s="137"/>
-      <c r="L29" s="273" t="s">
+      <c r="L29" s="200" t="s">
         <v>124</v>
       </c>
       <c r="M29" s="45"/>
@@ -4846,7 +4846,7 @@
       <c r="I30" s="72"/>
       <c r="J30" s="45"/>
       <c r="K30" s="137"/>
-      <c r="L30" s="273" t="s">
+      <c r="L30" s="200" t="s">
         <v>125</v>
       </c>
       <c r="M30" s="45"/>
@@ -4862,7 +4862,7 @@
       <c r="I31" s="72"/>
       <c r="J31" s="45"/>
       <c r="K31" s="137"/>
-      <c r="L31" s="273" t="s">
+      <c r="L31" s="200" t="s">
         <v>118</v>
       </c>
       <c r="M31" s="45"/>
@@ -4875,7 +4875,7 @@
       <c r="I32" s="84"/>
       <c r="J32" s="45"/>
       <c r="K32" s="137"/>
-      <c r="L32" s="274" t="s">
+      <c r="L32" s="201" t="s">
         <v>119</v>
       </c>
       <c r="M32" s="45"/>
@@ -4982,7 +4982,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="K37" s="134"/>
-      <c r="L37" s="273" t="s">
+      <c r="L37" s="200" t="s">
         <v>132</v>
       </c>
       <c r="M37" s="2"/>
@@ -5003,7 +5003,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="K38" s="134"/>
-      <c r="L38" s="273" t="s">
+      <c r="L38" s="200" t="s">
         <v>133</v>
       </c>
       <c r="M38" s="2"/>
@@ -5026,7 +5026,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="K39" s="134"/>
-      <c r="L39" s="274" t="s">
+      <c r="L39" s="201" t="s">
         <v>134</v>
       </c>
       <c r="M39" s="2"/>
@@ -5110,16 +5110,16 @@
       <c r="A43" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="280" t="s">
+      <c r="B43" s="259" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="281"/>
-      <c r="D43" s="281"/>
-      <c r="E43" s="281"/>
-      <c r="F43" s="281"/>
-      <c r="G43" s="281"/>
-      <c r="H43" s="281"/>
-      <c r="I43" s="282"/>
+      <c r="C43" s="260"/>
+      <c r="D43" s="260"/>
+      <c r="E43" s="260"/>
+      <c r="F43" s="260"/>
+      <c r="G43" s="260"/>
+      <c r="H43" s="260"/>
+      <c r="I43" s="261"/>
       <c r="K43" s="134"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -5131,14 +5131,14 @@
     </row>
     <row r="44" spans="1:26" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
-      <c r="B44" s="283"/>
-      <c r="C44" s="284"/>
-      <c r="D44" s="284"/>
-      <c r="E44" s="284"/>
-      <c r="F44" s="284"/>
-      <c r="G44" s="284"/>
-      <c r="H44" s="284"/>
-      <c r="I44" s="285"/>
+      <c r="B44" s="262"/>
+      <c r="C44" s="263"/>
+      <c r="D44" s="263"/>
+      <c r="E44" s="263"/>
+      <c r="F44" s="263"/>
+      <c r="G44" s="263"/>
+      <c r="H44" s="263"/>
+      <c r="I44" s="264"/>
       <c r="K44" s="134"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -5200,7 +5200,7 @@
       <c r="K47" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="L47" s="273" t="s">
+      <c r="L47" s="200" t="s">
         <v>18</v>
       </c>
       <c r="M47" s="2"/>
@@ -5225,7 +5225,7 @@
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
       <c r="K48" s="135"/>
-      <c r="L48" s="273" t="s">
+      <c r="L48" s="200" t="s">
         <v>123</v>
       </c>
       <c r="M48" s="2"/>
@@ -5253,7 +5253,7 @@
       <c r="H49" s="44"/>
       <c r="I49" s="44"/>
       <c r="K49" s="136"/>
-      <c r="L49" s="273" t="s">
+      <c r="L49" s="200" t="s">
         <v>135</v>
       </c>
       <c r="M49" s="2"/>
@@ -5266,7 +5266,7 @@
       <c r="A50" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="275">
+      <c r="B50" s="202">
         <v>7.3167499999999999</v>
       </c>
       <c r="C50" s="70">
@@ -5275,7 +5275,7 @@
       <c r="D50" s="71">
         <v>4.5060000000000002</v>
       </c>
-      <c r="E50" s="278">
+      <c r="E50" s="205">
         <v>2.1599999999999999E-4</v>
       </c>
       <c r="F50" s="15" t="s">
@@ -5288,7 +5288,7 @@
       <c r="I50" s="72"/>
       <c r="J50" s="43"/>
       <c r="K50" s="137"/>
-      <c r="L50" s="273" t="s">
+      <c r="L50" s="200" t="s">
         <v>136</v>
       </c>
       <c r="M50" s="2"/>
@@ -5301,7 +5301,7 @@
       <c r="A51" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="276">
+      <c r="B51" s="203">
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="C51" s="73">
@@ -5310,7 +5310,7 @@
       <c r="D51" s="74">
         <v>3.105</v>
       </c>
-      <c r="E51" s="279">
+      <c r="E51" s="206">
         <v>5.581E-3</v>
       </c>
       <c r="F51" s="15" t="s">
@@ -5323,7 +5323,7 @@
       <c r="I51" s="72"/>
       <c r="J51" s="5"/>
       <c r="K51" s="137"/>
-      <c r="L51" s="273" t="s">
+      <c r="L51" s="200" t="s">
         <v>137</v>
       </c>
       <c r="M51" s="2"/>
@@ -5336,7 +5336,7 @@
       <c r="A52" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="276">
+      <c r="B52" s="203">
         <v>0.85516000000000003</v>
       </c>
       <c r="C52" s="73">
@@ -5345,7 +5345,7 @@
       <c r="D52" s="74">
         <v>5.1150000000000002</v>
       </c>
-      <c r="E52" s="279">
+      <c r="E52" s="206">
         <v>5.2800000000000003E-5</v>
       </c>
       <c r="F52" s="15" t="s">
@@ -5358,7 +5358,7 @@
       <c r="I52" s="72"/>
       <c r="J52" s="45"/>
       <c r="K52" s="137"/>
-      <c r="L52" s="273" t="s">
+      <c r="L52" s="200" t="s">
         <v>138</v>
       </c>
       <c r="M52" s="2"/>
@@ -5393,7 +5393,7 @@
       <c r="I53" s="44"/>
       <c r="J53" s="45"/>
       <c r="K53" s="137"/>
-      <c r="L53" s="273" t="s">
+      <c r="L53" s="200" t="s">
         <v>139</v>
       </c>
       <c r="M53" s="2"/>
@@ -5406,7 +5406,7 @@
       <c r="A54" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="277">
+      <c r="B54" s="204">
         <v>0.11280999999999999</v>
       </c>
       <c r="C54" s="79">
@@ -5415,7 +5415,7 @@
       <c r="D54" s="74">
         <v>7.0069999999999997</v>
       </c>
-      <c r="E54" s="279">
+      <c r="E54" s="206">
         <v>8.47E-7</v>
       </c>
       <c r="F54" s="15" t="s">
@@ -5428,7 +5428,7 @@
       <c r="I54" s="72"/>
       <c r="J54" s="45"/>
       <c r="K54" s="69"/>
-      <c r="L54" s="274" t="s">
+      <c r="L54" s="201" t="s">
         <v>140</v>
       </c>
       <c r="M54" s="2"/>
@@ -5549,7 +5549,7 @@
       <c r="I61" s="14"/>
       <c r="J61" s="57"/>
       <c r="K61" s="135"/>
-      <c r="L61" s="273" t="s">
+      <c r="L61" s="200" t="s">
         <v>141</v>
       </c>
       <c r="M61" s="2"/>
@@ -5574,7 +5574,7 @@
       <c r="I62" s="14"/>
       <c r="J62" s="42"/>
       <c r="K62" s="136"/>
-      <c r="L62" s="273" t="s">
+      <c r="L62" s="200" t="s">
         <v>142</v>
       </c>
       <c r="M62" s="2"/>
@@ -5594,7 +5594,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="K63" s="137"/>
-      <c r="L63" s="274" t="s">
+      <c r="L63" s="201" t="s">
         <v>143</v>
       </c>
       <c r="M63" s="2"/>
@@ -5696,16 +5696,16 @@
       <c r="A68" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="280" t="s">
+      <c r="B68" s="259" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="281"/>
-      <c r="D68" s="281"/>
-      <c r="E68" s="281"/>
-      <c r="F68" s="281"/>
-      <c r="G68" s="281"/>
-      <c r="H68" s="281"/>
-      <c r="I68" s="282"/>
+      <c r="C68" s="260"/>
+      <c r="D68" s="260"/>
+      <c r="E68" s="260"/>
+      <c r="F68" s="260"/>
+      <c r="G68" s="260"/>
+      <c r="H68" s="260"/>
+      <c r="I68" s="261"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="45"/>
@@ -5714,14 +5714,14 @@
     </row>
     <row r="69" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
-      <c r="B69" s="283"/>
-      <c r="C69" s="284"/>
-      <c r="D69" s="284"/>
-      <c r="E69" s="284"/>
-      <c r="F69" s="284"/>
-      <c r="G69" s="284"/>
-      <c r="H69" s="284"/>
-      <c r="I69" s="285"/>
+      <c r="B69" s="262"/>
+      <c r="C69" s="263"/>
+      <c r="D69" s="263"/>
+      <c r="E69" s="263"/>
+      <c r="F69" s="263"/>
+      <c r="G69" s="263"/>
+      <c r="H69" s="263"/>
+      <c r="I69" s="264"/>
       <c r="L69" s="26"/>
       <c r="M69" s="2"/>
       <c r="N69" s="45"/>
@@ -5785,7 +5785,7 @@
       <c r="I73" s="14"/>
       <c r="J73" s="187"/>
       <c r="K73" s="170"/>
-      <c r="L73" s="273" t="s">
+      <c r="L73" s="200" t="s">
         <v>18</v>
       </c>
       <c r="M73" s="2"/>
@@ -5806,7 +5806,7 @@
       <c r="I74" s="188"/>
       <c r="J74" s="186"/>
       <c r="K74" s="170"/>
-      <c r="L74" s="273" t="s">
+      <c r="L74" s="200" t="s">
         <v>123</v>
       </c>
       <c r="M74" s="2"/>
@@ -5827,7 +5827,7 @@
       <c r="I75" s="14"/>
       <c r="J75" s="186"/>
       <c r="K75" s="171"/>
-      <c r="L75" s="273" t="s">
+      <c r="L75" s="200" t="s">
         <v>144</v>
       </c>
       <c r="M75" s="2"/>
@@ -5846,7 +5846,7 @@
       <c r="D76" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E76" s="225" t="s">
+      <c r="E76" s="255" t="s">
         <v>65</v>
       </c>
       <c r="G76" s="84"/>
@@ -5854,7 +5854,7 @@
       <c r="I76" s="182"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="273" t="s">
+      <c r="L76" s="200" t="s">
         <v>145</v>
       </c>
       <c r="M76" s="2"/>
@@ -5872,7 +5872,7 @@
         <v>55</v>
       </c>
       <c r="D77" s="14"/>
-      <c r="E77" s="226"/>
+      <c r="E77" s="256"/>
       <c r="F77" s="15" t="s">
         <v>56</v>
       </c>
@@ -5881,7 +5881,7 @@
       <c r="I77" s="160"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="273" t="s">
+      <c r="L77" s="200" t="s">
         <v>146</v>
       </c>
       <c r="M77" s="2"/>
@@ -5914,7 +5914,7 @@
       <c r="I78" s="190"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
-      <c r="L78" s="273" t="s">
+      <c r="L78" s="200" t="s">
         <v>147</v>
       </c>
       <c r="M78" s="2"/>
@@ -5947,7 +5947,7 @@
       <c r="I79" s="191"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="273" t="s">
+      <c r="L79" s="200" t="s">
         <v>118</v>
       </c>
       <c r="M79" s="2"/>
@@ -5980,7 +5980,7 @@
       <c r="I80" s="192"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="274" t="s">
+      <c r="L80" s="201" t="s">
         <v>119</v>
       </c>
       <c r="M80" s="2"/>
@@ -6062,10 +6062,10 @@
       <c r="C85" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="F85" s="227" t="s">
+      <c r="F85" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="G85" s="228"/>
+      <c r="G85" s="258"/>
       <c r="I85" s="84"/>
       <c r="J85" s="57"/>
       <c r="K85" s="85"/>
@@ -6275,15 +6275,15 @@
       <c r="P93" s="100"/>
     </row>
     <row r="94" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="229" t="s">
+      <c r="B94" s="265" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="230"/>
-      <c r="D94" s="230"/>
-      <c r="E94" s="230"/>
-      <c r="F94" s="230"/>
-      <c r="G94" s="230"/>
-      <c r="H94" s="231"/>
+      <c r="C94" s="266"/>
+      <c r="D94" s="266"/>
+      <c r="E94" s="266"/>
+      <c r="F94" s="266"/>
+      <c r="G94" s="266"/>
+      <c r="H94" s="267"/>
       <c r="I94" s="84"/>
       <c r="J94" s="57"/>
       <c r="K94" s="100"/>
@@ -6294,13 +6294,13 @@
       <c r="P94" s="100"/>
     </row>
     <row r="95" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="232"/>
-      <c r="C95" s="233"/>
-      <c r="D95" s="233"/>
-      <c r="E95" s="233"/>
-      <c r="F95" s="233"/>
-      <c r="G95" s="233"/>
-      <c r="H95" s="234"/>
+      <c r="B95" s="268"/>
+      <c r="C95" s="269"/>
+      <c r="D95" s="269"/>
+      <c r="E95" s="269"/>
+      <c r="F95" s="269"/>
+      <c r="G95" s="269"/>
+      <c r="H95" s="270"/>
       <c r="I95" s="84"/>
       <c r="J95" s="57"/>
       <c r="K95" s="100"/>
@@ -6311,13 +6311,13 @@
       <c r="P95" s="100"/>
     </row>
     <row r="96" spans="1:16" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="235"/>
-      <c r="C96" s="236"/>
-      <c r="D96" s="236"/>
-      <c r="E96" s="236"/>
-      <c r="F96" s="236"/>
-      <c r="G96" s="236"/>
-      <c r="H96" s="237"/>
+      <c r="B96" s="271"/>
+      <c r="C96" s="272"/>
+      <c r="D96" s="272"/>
+      <c r="E96" s="272"/>
+      <c r="F96" s="272"/>
+      <c r="G96" s="272"/>
+      <c r="H96" s="273"/>
       <c r="I96" s="84"/>
       <c r="J96" s="57"/>
       <c r="K96" s="100"/>
@@ -6455,12 +6455,12 @@
       <c r="H104" s="106"/>
       <c r="I104" s="106"/>
       <c r="J104" s="107"/>
-      <c r="K104" s="208"/>
-      <c r="L104" s="209"/>
-      <c r="M104" s="209"/>
-      <c r="N104" s="209"/>
-      <c r="O104" s="209"/>
-      <c r="P104" s="209"/>
+      <c r="K104" s="238"/>
+      <c r="L104" s="239"/>
+      <c r="M104" s="239"/>
+      <c r="N104" s="239"/>
+      <c r="O104" s="239"/>
+      <c r="P104" s="239"/>
     </row>
     <row r="105" spans="1:19" s="103" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="105"/>
@@ -7029,7 +7029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B60" sqref="B60:W64"/>
     </sheetView>
   </sheetViews>
@@ -7072,56 +7072,56 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="242" t="s">
+      <c r="B6" s="207" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
-      <c r="L6" s="245"/>
-      <c r="M6" s="245"/>
-      <c r="N6" s="245"/>
-      <c r="O6" s="245"/>
-      <c r="P6" s="245"/>
-      <c r="Q6" s="245"/>
-      <c r="R6" s="245"/>
-      <c r="S6" s="245"/>
-      <c r="T6" s="245"/>
-      <c r="U6" s="245"/>
-      <c r="V6" s="245"/>
-      <c r="W6" s="245"/>
-      <c r="X6" s="246"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="208"/>
+      <c r="K6" s="208"/>
+      <c r="L6" s="208"/>
+      <c r="M6" s="208"/>
+      <c r="N6" s="208"/>
+      <c r="O6" s="208"/>
+      <c r="P6" s="208"/>
+      <c r="Q6" s="208"/>
+      <c r="R6" s="208"/>
+      <c r="S6" s="208"/>
+      <c r="T6" s="208"/>
+      <c r="U6" s="208"/>
+      <c r="V6" s="208"/>
+      <c r="W6" s="208"/>
+      <c r="X6" s="209"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="251"/>
-      <c r="K7" s="251"/>
-      <c r="L7" s="251"/>
-      <c r="M7" s="251"/>
-      <c r="N7" s="251"/>
-      <c r="O7" s="251"/>
-      <c r="P7" s="251"/>
-      <c r="Q7" s="251"/>
-      <c r="R7" s="251"/>
-      <c r="S7" s="251"/>
-      <c r="T7" s="251"/>
-      <c r="U7" s="251"/>
-      <c r="V7" s="251"/>
-      <c r="W7" s="251"/>
-      <c r="X7" s="252"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="214"/>
+      <c r="P7" s="214"/>
+      <c r="Q7" s="214"/>
+      <c r="R7" s="214"/>
+      <c r="S7" s="214"/>
+      <c r="T7" s="214"/>
+      <c r="U7" s="214"/>
+      <c r="V7" s="214"/>
+      <c r="W7" s="214"/>
+      <c r="X7" s="215"/>
     </row>
     <row r="10" spans="1:24" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -7158,85 +7158,85 @@
       <c r="Q12" s="28"/>
     </row>
     <row r="13" spans="1:24" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="195" t="s">
+      <c r="B13" s="277" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="196"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="197"/>
+      <c r="C13" s="278"/>
+      <c r="D13" s="278"/>
+      <c r="E13" s="278"/>
+      <c r="F13" s="278"/>
+      <c r="G13" s="278"/>
+      <c r="H13" s="279"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="204" t="s">
+      <c r="J13" s="216" t="s">
         <v>154</v>
       </c>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="204"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="216"/>
+      <c r="M13" s="216"/>
+      <c r="N13" s="216"/>
+      <c r="O13" s="216"/>
+      <c r="P13" s="216"/>
       <c r="Q13" s="28"/>
-      <c r="R13" s="204" t="s">
+      <c r="R13" s="216" t="s">
         <v>149</v>
       </c>
-      <c r="S13" s="204"/>
-      <c r="T13" s="204"/>
-      <c r="U13" s="204"/>
-      <c r="V13" s="204"/>
-      <c r="W13" s="204"/>
-      <c r="X13" s="204"/>
+      <c r="S13" s="216"/>
+      <c r="T13" s="216"/>
+      <c r="U13" s="216"/>
+      <c r="V13" s="216"/>
+      <c r="W13" s="216"/>
+      <c r="X13" s="216"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="198"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="200"/>
+      <c r="B14" s="280"/>
+      <c r="C14" s="281"/>
+      <c r="D14" s="281"/>
+      <c r="E14" s="281"/>
+      <c r="F14" s="281"/>
+      <c r="G14" s="281"/>
+      <c r="H14" s="282"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="204"/>
-      <c r="M14" s="204"/>
-      <c r="N14" s="204"/>
-      <c r="O14" s="204"/>
-      <c r="P14" s="204"/>
+      <c r="J14" s="216"/>
+      <c r="K14" s="216"/>
+      <c r="L14" s="216"/>
+      <c r="M14" s="216"/>
+      <c r="N14" s="216"/>
+      <c r="O14" s="216"/>
+      <c r="P14" s="216"/>
       <c r="Q14" s="28"/>
-      <c r="R14" s="204"/>
-      <c r="S14" s="204"/>
-      <c r="T14" s="204"/>
-      <c r="U14" s="204"/>
-      <c r="V14" s="204"/>
-      <c r="W14" s="204"/>
-      <c r="X14" s="204"/>
+      <c r="R14" s="216"/>
+      <c r="S14" s="216"/>
+      <c r="T14" s="216"/>
+      <c r="U14" s="216"/>
+      <c r="V14" s="216"/>
+      <c r="W14" s="216"/>
+      <c r="X14" s="216"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="201"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="203"/>
+      <c r="B15" s="283"/>
+      <c r="C15" s="284"/>
+      <c r="D15" s="284"/>
+      <c r="E15" s="284"/>
+      <c r="F15" s="284"/>
+      <c r="G15" s="284"/>
+      <c r="H15" s="285"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="204"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="204"/>
-      <c r="P15" s="204"/>
+      <c r="J15" s="216"/>
+      <c r="K15" s="216"/>
+      <c r="L15" s="216"/>
+      <c r="M15" s="216"/>
+      <c r="N15" s="216"/>
+      <c r="O15" s="216"/>
+      <c r="P15" s="216"/>
       <c r="Q15" s="28"/>
-      <c r="R15" s="204"/>
-      <c r="S15" s="204"/>
-      <c r="T15" s="204"/>
-      <c r="U15" s="204"/>
-      <c r="V15" s="204"/>
-      <c r="W15" s="204"/>
-      <c r="X15" s="204"/>
+      <c r="R15" s="216"/>
+      <c r="S15" s="216"/>
+      <c r="T15" s="216"/>
+      <c r="U15" s="216"/>
+      <c r="V15" s="216"/>
+      <c r="W15" s="216"/>
+      <c r="X15" s="216"/>
     </row>
     <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
       <c r="I16" s="28"/>
@@ -7276,76 +7276,76 @@
       <c r="I18" s="28"/>
       <c r="Q18" s="28"/>
     </row>
-    <row r="19" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C19" s="204" t="s">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C19" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="204"/>
+      <c r="D19" s="216"/>
       <c r="E19" s="27"/>
       <c r="I19" s="28"/>
-      <c r="M19" s="204" t="s">
+      <c r="M19" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="N19" s="204"/>
+      <c r="N19" s="216"/>
       <c r="Q19" s="28"/>
-      <c r="T19" s="204" t="s">
+      <c r="T19" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="U19" s="204"/>
+      <c r="U19" s="216"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I20" s="28"/>
       <c r="Q20" s="28"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="242" t="s">
+      <c r="B21" s="207" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="245"/>
-      <c r="D21" s="245"/>
-      <c r="E21" s="245"/>
-      <c r="F21" s="245"/>
-      <c r="G21" s="245"/>
-      <c r="H21" s="245"/>
-      <c r="I21" s="245"/>
-      <c r="J21" s="245"/>
-      <c r="K21" s="245"/>
-      <c r="L21" s="245"/>
-      <c r="M21" s="245"/>
-      <c r="N21" s="245"/>
-      <c r="O21" s="245"/>
-      <c r="P21" s="245"/>
-      <c r="Q21" s="245"/>
-      <c r="R21" s="245"/>
-      <c r="S21" s="245"/>
-      <c r="T21" s="245"/>
-      <c r="U21" s="245"/>
-      <c r="V21" s="245"/>
-      <c r="W21" s="246"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="208"/>
+      <c r="K21" s="208"/>
+      <c r="L21" s="208"/>
+      <c r="M21" s="208"/>
+      <c r="N21" s="208"/>
+      <c r="O21" s="208"/>
+      <c r="P21" s="208"/>
+      <c r="Q21" s="208"/>
+      <c r="R21" s="208"/>
+      <c r="S21" s="208"/>
+      <c r="T21" s="208"/>
+      <c r="U21" s="208"/>
+      <c r="V21" s="208"/>
+      <c r="W21" s="209"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="250"/>
-      <c r="C22" s="251"/>
-      <c r="D22" s="251"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="251"/>
-      <c r="G22" s="251"/>
-      <c r="H22" s="251"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="251"/>
-      <c r="K22" s="251"/>
-      <c r="L22" s="251"/>
-      <c r="M22" s="251"/>
-      <c r="N22" s="251"/>
-      <c r="O22" s="251"/>
-      <c r="P22" s="251"/>
-      <c r="Q22" s="251"/>
-      <c r="R22" s="251"/>
-      <c r="S22" s="251"/>
-      <c r="T22" s="251"/>
-      <c r="U22" s="251"/>
-      <c r="V22" s="251"/>
-      <c r="W22" s="252"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="214"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
+      <c r="I22" s="214"/>
+      <c r="J22" s="214"/>
+      <c r="K22" s="214"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="214"/>
+      <c r="N22" s="214"/>
+      <c r="O22" s="214"/>
+      <c r="P22" s="214"/>
+      <c r="Q22" s="214"/>
+      <c r="R22" s="214"/>
+      <c r="S22" s="214"/>
+      <c r="T22" s="214"/>
+      <c r="U22" s="214"/>
+      <c r="V22" s="214"/>
+      <c r="W22" s="215"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -7356,64 +7356,64 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="242" t="s">
+      <c r="B26" s="207" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="245"/>
-      <c r="D26" s="245"/>
-      <c r="E26" s="245"/>
-      <c r="F26" s="245"/>
-      <c r="G26" s="245"/>
-      <c r="H26" s="245"/>
-      <c r="I26" s="245"/>
-      <c r="J26" s="245"/>
-      <c r="K26" s="245"/>
-      <c r="L26" s="245"/>
-      <c r="M26" s="245"/>
-      <c r="N26" s="245"/>
-      <c r="O26" s="245"/>
-      <c r="P26" s="245"/>
-      <c r="Q26" s="245"/>
-      <c r="R26" s="245"/>
-      <c r="S26" s="245"/>
-      <c r="T26" s="245"/>
-      <c r="U26" s="245"/>
-      <c r="V26" s="245"/>
-      <c r="W26" s="246"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="208"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="208"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="208"/>
+      <c r="J26" s="208"/>
+      <c r="K26" s="208"/>
+      <c r="L26" s="208"/>
+      <c r="M26" s="208"/>
+      <c r="N26" s="208"/>
+      <c r="O26" s="208"/>
+      <c r="P26" s="208"/>
+      <c r="Q26" s="208"/>
+      <c r="R26" s="208"/>
+      <c r="S26" s="208"/>
+      <c r="T26" s="208"/>
+      <c r="U26" s="208"/>
+      <c r="V26" s="208"/>
+      <c r="W26" s="209"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="250"/>
-      <c r="C27" s="251"/>
-      <c r="D27" s="251"/>
-      <c r="E27" s="251"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="251"/>
-      <c r="H27" s="251"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="251"/>
-      <c r="K27" s="251"/>
-      <c r="L27" s="251"/>
-      <c r="M27" s="251"/>
-      <c r="N27" s="251"/>
-      <c r="O27" s="251"/>
-      <c r="P27" s="251"/>
-      <c r="Q27" s="251"/>
-      <c r="R27" s="251"/>
-      <c r="S27" s="251"/>
-      <c r="T27" s="251"/>
-      <c r="U27" s="251"/>
-      <c r="V27" s="251"/>
-      <c r="W27" s="252"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="214"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="214"/>
+      <c r="M27" s="214"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="214"/>
+      <c r="P27" s="214"/>
+      <c r="Q27" s="214"/>
+      <c r="R27" s="214"/>
+      <c r="S27" s="214"/>
+      <c r="T27" s="214"/>
+      <c r="U27" s="214"/>
+      <c r="V27" s="214"/>
+      <c r="W27" s="215"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="204">
+      <c r="C29" s="216">
         <f>SQRT(C33)</f>
         <v>0.69992856778388468</v>
       </c>
-      <c r="D29" s="204"/>
+      <c r="D29" s="216"/>
       <c r="E29" s="189" t="s">
         <v>85</v>
       </c>
@@ -7421,20 +7421,20 @@
       <c r="L29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M29" s="204">
+      <c r="M29" s="216">
         <f>SQRT(M33)</f>
         <v>0.93685644578024863</v>
       </c>
-      <c r="N29" s="204"/>
+      <c r="N29" s="216"/>
       <c r="Q29" s="28"/>
       <c r="S29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="204">
+      <c r="T29" s="216">
         <f>SQRT(T33)</f>
         <v>0.89838744425776573</v>
       </c>
-      <c r="U29" s="204"/>
+      <c r="U29" s="216"/>
     </row>
     <row r="31" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -7473,27 +7473,27 @@
       <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="204">
+      <c r="C33" s="216">
         <v>0.4899</v>
       </c>
-      <c r="D33" s="204"/>
+      <c r="D33" s="216"/>
       <c r="E33" s="27"/>
       <c r="I33" s="28"/>
       <c r="L33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M33" s="204">
+      <c r="M33" s="216">
         <v>0.87770000000000004</v>
       </c>
-      <c r="N33" s="204"/>
+      <c r="N33" s="216"/>
       <c r="Q33" s="28"/>
       <c r="S33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T33" s="204">
+      <c r="T33" s="216">
         <v>0.80710000000000004</v>
       </c>
-      <c r="U33" s="204"/>
+      <c r="U33" s="216"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B34" s="38"/>
@@ -7514,27 +7514,27 @@
       <c r="B35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="204">
+      <c r="C35" s="216">
         <v>0.46870000000000001</v>
       </c>
-      <c r="D35" s="204"/>
+      <c r="D35" s="216"/>
       <c r="E35" s="27"/>
       <c r="I35" s="28"/>
       <c r="L35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M35" s="204">
+      <c r="M35" s="216">
         <v>0.84709999999999996</v>
       </c>
-      <c r="N35" s="204"/>
+      <c r="N35" s="216"/>
       <c r="Q35" s="28"/>
       <c r="S35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T35" s="204">
+      <c r="T35" s="216">
         <v>0.78080000000000005</v>
       </c>
-      <c r="U35" s="204"/>
+      <c r="U35" s="216"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -7545,78 +7545,78 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="204" t="s">
+      <c r="B41" s="216" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="204"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="204"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="204"/>
-      <c r="I41" s="204"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="204"/>
-      <c r="L41" s="204"/>
-      <c r="M41" s="204"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="204"/>
-      <c r="P41" s="204"/>
-      <c r="Q41" s="204"/>
-      <c r="R41" s="204"/>
-      <c r="S41" s="204"/>
-      <c r="T41" s="204"/>
-      <c r="U41" s="204"/>
-      <c r="V41" s="204"/>
-      <c r="W41" s="204"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="216"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="216"/>
+      <c r="G41" s="216"/>
+      <c r="H41" s="216"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="216"/>
+      <c r="L41" s="216"/>
+      <c r="M41" s="216"/>
+      <c r="N41" s="216"/>
+      <c r="O41" s="216"/>
+      <c r="P41" s="216"/>
+      <c r="Q41" s="216"/>
+      <c r="R41" s="216"/>
+      <c r="S41" s="216"/>
+      <c r="T41" s="216"/>
+      <c r="U41" s="216"/>
+      <c r="V41" s="216"/>
+      <c r="W41" s="216"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="204"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="204"/>
-      <c r="M42" s="204"/>
-      <c r="N42" s="204"/>
-      <c r="O42" s="204"/>
-      <c r="P42" s="204"/>
-      <c r="Q42" s="204"/>
-      <c r="R42" s="204"/>
-      <c r="S42" s="204"/>
-      <c r="T42" s="204"/>
-      <c r="U42" s="204"/>
-      <c r="V42" s="204"/>
-      <c r="W42" s="204"/>
+      <c r="B42" s="216"/>
+      <c r="C42" s="216"/>
+      <c r="D42" s="216"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="216"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="216"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="216"/>
+      <c r="K42" s="216"/>
+      <c r="L42" s="216"/>
+      <c r="M42" s="216"/>
+      <c r="N42" s="216"/>
+      <c r="O42" s="216"/>
+      <c r="P42" s="216"/>
+      <c r="Q42" s="216"/>
+      <c r="R42" s="216"/>
+      <c r="S42" s="216"/>
+      <c r="T42" s="216"/>
+      <c r="U42" s="216"/>
+      <c r="V42" s="216"/>
+      <c r="W42" s="216"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B43" s="204"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="204"/>
-      <c r="F43" s="204"/>
-      <c r="G43" s="204"/>
-      <c r="H43" s="204"/>
-      <c r="I43" s="204"/>
-      <c r="J43" s="204"/>
-      <c r="K43" s="204"/>
-      <c r="L43" s="204"/>
-      <c r="M43" s="204"/>
-      <c r="N43" s="204"/>
-      <c r="O43" s="204"/>
-      <c r="P43" s="204"/>
-      <c r="Q43" s="204"/>
-      <c r="R43" s="204"/>
-      <c r="S43" s="204"/>
-      <c r="T43" s="204"/>
-      <c r="U43" s="204"/>
-      <c r="V43" s="204"/>
-      <c r="W43" s="204"/>
+      <c r="B43" s="216"/>
+      <c r="C43" s="216"/>
+      <c r="D43" s="216"/>
+      <c r="E43" s="216"/>
+      <c r="F43" s="216"/>
+      <c r="G43" s="216"/>
+      <c r="H43" s="216"/>
+      <c r="I43" s="216"/>
+      <c r="J43" s="216"/>
+      <c r="K43" s="216"/>
+      <c r="L43" s="216"/>
+      <c r="M43" s="216"/>
+      <c r="N43" s="216"/>
+      <c r="O43" s="216"/>
+      <c r="P43" s="216"/>
+      <c r="Q43" s="216"/>
+      <c r="R43" s="216"/>
+      <c r="S43" s="216"/>
+      <c r="T43" s="216"/>
+      <c r="U43" s="216"/>
+      <c r="V43" s="216"/>
+      <c r="W43" s="216"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
@@ -7627,71 +7627,71 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B47" s="204" t="s">
+      <c r="B47" s="216" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="204"/>
-      <c r="D47" s="204"/>
-      <c r="E47" s="204"/>
-      <c r="F47" s="204"/>
-      <c r="G47" s="204"/>
-      <c r="H47" s="204"/>
-      <c r="I47" s="204"/>
-      <c r="J47" s="204"/>
-      <c r="K47" s="204"/>
-      <c r="L47" s="204"/>
-      <c r="M47" s="204"/>
-      <c r="N47" s="204"/>
-      <c r="O47" s="204"/>
-      <c r="P47" s="204"/>
-      <c r="Q47" s="204"/>
-      <c r="R47" s="204"/>
-      <c r="S47" s="204"/>
-      <c r="T47" s="204"/>
-      <c r="U47" s="204"/>
-      <c r="V47" s="204"/>
-      <c r="W47" s="204"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="216"/>
+      <c r="K47" s="216"/>
+      <c r="L47" s="216"/>
+      <c r="M47" s="216"/>
+      <c r="N47" s="216"/>
+      <c r="O47" s="216"/>
+      <c r="P47" s="216"/>
+      <c r="Q47" s="216"/>
+      <c r="R47" s="216"/>
+      <c r="S47" s="216"/>
+      <c r="T47" s="216"/>
+      <c r="U47" s="216"/>
+      <c r="V47" s="216"/>
+      <c r="W47" s="216"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B48" s="204"/>
-      <c r="C48" s="204"/>
-      <c r="D48" s="204"/>
-      <c r="E48" s="204"/>
-      <c r="F48" s="204"/>
-      <c r="G48" s="204"/>
-      <c r="H48" s="204"/>
-      <c r="I48" s="204"/>
-      <c r="J48" s="204"/>
-      <c r="K48" s="204"/>
-      <c r="L48" s="204"/>
-      <c r="M48" s="204"/>
-      <c r="N48" s="204"/>
-      <c r="O48" s="204"/>
-      <c r="P48" s="204"/>
-      <c r="Q48" s="204"/>
-      <c r="R48" s="204"/>
-      <c r="S48" s="204"/>
-      <c r="T48" s="204"/>
-      <c r="U48" s="204"/>
-      <c r="V48" s="204"/>
-      <c r="W48" s="204"/>
+      <c r="B48" s="216"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="216"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="216"/>
+      <c r="G48" s="216"/>
+      <c r="H48" s="216"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="216"/>
+      <c r="K48" s="216"/>
+      <c r="L48" s="216"/>
+      <c r="M48" s="216"/>
+      <c r="N48" s="216"/>
+      <c r="O48" s="216"/>
+      <c r="P48" s="216"/>
+      <c r="Q48" s="216"/>
+      <c r="R48" s="216"/>
+      <c r="S48" s="216"/>
+      <c r="T48" s="216"/>
+      <c r="U48" s="216"/>
+      <c r="V48" s="216"/>
+      <c r="W48" s="216"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C50" s="204">
+      <c r="C50" s="216">
         <v>19.055820000000001</v>
       </c>
-      <c r="D50" s="204"/>
+      <c r="D50" s="216"/>
       <c r="E50" s="27"/>
       <c r="I50" s="28"/>
-      <c r="M50" s="204">
+      <c r="M50" s="216">
         <v>7.3167499999999999</v>
       </c>
-      <c r="N50" s="204"/>
+      <c r="N50" s="216"/>
       <c r="Q50" s="28"/>
-      <c r="T50" s="204">
+      <c r="T50" s="216">
         <v>7.9686500000000002</v>
       </c>
-      <c r="U50" s="204"/>
+      <c r="U50" s="216"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -7702,78 +7702,78 @@
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B54" s="242" t="s">
+      <c r="B54" s="207" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="245"/>
-      <c r="D54" s="245"/>
-      <c r="E54" s="245"/>
-      <c r="F54" s="245"/>
-      <c r="G54" s="245"/>
-      <c r="H54" s="245"/>
-      <c r="I54" s="245"/>
-      <c r="J54" s="245"/>
-      <c r="K54" s="245"/>
-      <c r="L54" s="245"/>
-      <c r="M54" s="245"/>
-      <c r="N54" s="245"/>
-      <c r="O54" s="245"/>
-      <c r="P54" s="245"/>
-      <c r="Q54" s="245"/>
-      <c r="R54" s="245"/>
-      <c r="S54" s="245"/>
-      <c r="T54" s="245"/>
-      <c r="U54" s="245"/>
-      <c r="V54" s="245"/>
-      <c r="W54" s="246"/>
+      <c r="C54" s="208"/>
+      <c r="D54" s="208"/>
+      <c r="E54" s="208"/>
+      <c r="F54" s="208"/>
+      <c r="G54" s="208"/>
+      <c r="H54" s="208"/>
+      <c r="I54" s="208"/>
+      <c r="J54" s="208"/>
+      <c r="K54" s="208"/>
+      <c r="L54" s="208"/>
+      <c r="M54" s="208"/>
+      <c r="N54" s="208"/>
+      <c r="O54" s="208"/>
+      <c r="P54" s="208"/>
+      <c r="Q54" s="208"/>
+      <c r="R54" s="208"/>
+      <c r="S54" s="208"/>
+      <c r="T54" s="208"/>
+      <c r="U54" s="208"/>
+      <c r="V54" s="208"/>
+      <c r="W54" s="209"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B55" s="247"/>
-      <c r="C55" s="248"/>
-      <c r="D55" s="248"/>
-      <c r="E55" s="248"/>
-      <c r="F55" s="248"/>
-      <c r="G55" s="248"/>
-      <c r="H55" s="248"/>
-      <c r="I55" s="248"/>
-      <c r="J55" s="248"/>
-      <c r="K55" s="248"/>
-      <c r="L55" s="248"/>
-      <c r="M55" s="248"/>
-      <c r="N55" s="248"/>
-      <c r="O55" s="248"/>
-      <c r="P55" s="248"/>
-      <c r="Q55" s="248"/>
-      <c r="R55" s="248"/>
-      <c r="S55" s="248"/>
-      <c r="T55" s="248"/>
-      <c r="U55" s="248"/>
-      <c r="V55" s="248"/>
-      <c r="W55" s="249"/>
+      <c r="B55" s="210"/>
+      <c r="C55" s="211"/>
+      <c r="D55" s="211"/>
+      <c r="E55" s="211"/>
+      <c r="F55" s="211"/>
+      <c r="G55" s="211"/>
+      <c r="H55" s="211"/>
+      <c r="I55" s="211"/>
+      <c r="J55" s="211"/>
+      <c r="K55" s="211"/>
+      <c r="L55" s="211"/>
+      <c r="M55" s="211"/>
+      <c r="N55" s="211"/>
+      <c r="O55" s="211"/>
+      <c r="P55" s="211"/>
+      <c r="Q55" s="211"/>
+      <c r="R55" s="211"/>
+      <c r="S55" s="211"/>
+      <c r="T55" s="211"/>
+      <c r="U55" s="211"/>
+      <c r="V55" s="211"/>
+      <c r="W55" s="212"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B56" s="250"/>
-      <c r="C56" s="251"/>
-      <c r="D56" s="251"/>
-      <c r="E56" s="251"/>
-      <c r="F56" s="251"/>
-      <c r="G56" s="251"/>
-      <c r="H56" s="251"/>
-      <c r="I56" s="251"/>
-      <c r="J56" s="251"/>
-      <c r="K56" s="251"/>
-      <c r="L56" s="251"/>
-      <c r="M56" s="251"/>
-      <c r="N56" s="251"/>
-      <c r="O56" s="251"/>
-      <c r="P56" s="251"/>
-      <c r="Q56" s="251"/>
-      <c r="R56" s="251"/>
-      <c r="S56" s="251"/>
-      <c r="T56" s="251"/>
-      <c r="U56" s="251"/>
-      <c r="V56" s="251"/>
-      <c r="W56" s="252"/>
+      <c r="B56" s="213"/>
+      <c r="C56" s="214"/>
+      <c r="D56" s="214"/>
+      <c r="E56" s="214"/>
+      <c r="F56" s="214"/>
+      <c r="G56" s="214"/>
+      <c r="H56" s="214"/>
+      <c r="I56" s="214"/>
+      <c r="J56" s="214"/>
+      <c r="K56" s="214"/>
+      <c r="L56" s="214"/>
+      <c r="M56" s="214"/>
+      <c r="N56" s="214"/>
+      <c r="O56" s="214"/>
+      <c r="P56" s="214"/>
+      <c r="Q56" s="214"/>
+      <c r="R56" s="214"/>
+      <c r="S56" s="214"/>
+      <c r="T56" s="214"/>
+      <c r="U56" s="214"/>
+      <c r="V56" s="214"/>
+      <c r="W56" s="215"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -7784,126 +7784,126 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B60" s="195" t="s">
+      <c r="B60" s="277" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="196"/>
-      <c r="D60" s="196"/>
-      <c r="E60" s="196"/>
-      <c r="F60" s="196"/>
-      <c r="G60" s="196"/>
-      <c r="H60" s="196"/>
-      <c r="I60" s="196"/>
-      <c r="J60" s="196"/>
-      <c r="K60" s="196"/>
-      <c r="L60" s="196"/>
-      <c r="M60" s="196"/>
-      <c r="N60" s="196"/>
-      <c r="O60" s="196"/>
-      <c r="P60" s="196"/>
-      <c r="Q60" s="196"/>
-      <c r="R60" s="196"/>
-      <c r="S60" s="196"/>
-      <c r="T60" s="196"/>
-      <c r="U60" s="196"/>
-      <c r="V60" s="196"/>
-      <c r="W60" s="197"/>
+      <c r="C60" s="278"/>
+      <c r="D60" s="278"/>
+      <c r="E60" s="278"/>
+      <c r="F60" s="278"/>
+      <c r="G60" s="278"/>
+      <c r="H60" s="278"/>
+      <c r="I60" s="278"/>
+      <c r="J60" s="278"/>
+      <c r="K60" s="278"/>
+      <c r="L60" s="278"/>
+      <c r="M60" s="278"/>
+      <c r="N60" s="278"/>
+      <c r="O60" s="278"/>
+      <c r="P60" s="278"/>
+      <c r="Q60" s="278"/>
+      <c r="R60" s="278"/>
+      <c r="S60" s="278"/>
+      <c r="T60" s="278"/>
+      <c r="U60" s="278"/>
+      <c r="V60" s="278"/>
+      <c r="W60" s="279"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B61" s="198"/>
-      <c r="C61" s="199"/>
-      <c r="D61" s="199"/>
-      <c r="E61" s="199"/>
-      <c r="F61" s="199"/>
-      <c r="G61" s="199"/>
-      <c r="H61" s="199"/>
-      <c r="I61" s="199"/>
-      <c r="J61" s="199"/>
-      <c r="K61" s="199"/>
-      <c r="L61" s="199"/>
-      <c r="M61" s="199"/>
-      <c r="N61" s="199"/>
-      <c r="O61" s="199"/>
-      <c r="P61" s="199"/>
-      <c r="Q61" s="199"/>
-      <c r="R61" s="199"/>
-      <c r="S61" s="199"/>
-      <c r="T61" s="199"/>
-      <c r="U61" s="199"/>
-      <c r="V61" s="199"/>
-      <c r="W61" s="200"/>
+      <c r="B61" s="280"/>
+      <c r="C61" s="281"/>
+      <c r="D61" s="281"/>
+      <c r="E61" s="281"/>
+      <c r="F61" s="281"/>
+      <c r="G61" s="281"/>
+      <c r="H61" s="281"/>
+      <c r="I61" s="281"/>
+      <c r="J61" s="281"/>
+      <c r="K61" s="281"/>
+      <c r="L61" s="281"/>
+      <c r="M61" s="281"/>
+      <c r="N61" s="281"/>
+      <c r="O61" s="281"/>
+      <c r="P61" s="281"/>
+      <c r="Q61" s="281"/>
+      <c r="R61" s="281"/>
+      <c r="S61" s="281"/>
+      <c r="T61" s="281"/>
+      <c r="U61" s="281"/>
+      <c r="V61" s="281"/>
+      <c r="W61" s="282"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B62" s="198"/>
-      <c r="C62" s="199"/>
-      <c r="D62" s="199"/>
-      <c r="E62" s="199"/>
-      <c r="F62" s="199"/>
-      <c r="G62" s="199"/>
-      <c r="H62" s="199"/>
-      <c r="I62" s="199"/>
-      <c r="J62" s="199"/>
-      <c r="K62" s="199"/>
-      <c r="L62" s="199"/>
-      <c r="M62" s="199"/>
-      <c r="N62" s="199"/>
-      <c r="O62" s="199"/>
-      <c r="P62" s="199"/>
-      <c r="Q62" s="199"/>
-      <c r="R62" s="199"/>
-      <c r="S62" s="199"/>
-      <c r="T62" s="199"/>
-      <c r="U62" s="199"/>
-      <c r="V62" s="199"/>
-      <c r="W62" s="200"/>
+      <c r="B62" s="280"/>
+      <c r="C62" s="281"/>
+      <c r="D62" s="281"/>
+      <c r="E62" s="281"/>
+      <c r="F62" s="281"/>
+      <c r="G62" s="281"/>
+      <c r="H62" s="281"/>
+      <c r="I62" s="281"/>
+      <c r="J62" s="281"/>
+      <c r="K62" s="281"/>
+      <c r="L62" s="281"/>
+      <c r="M62" s="281"/>
+      <c r="N62" s="281"/>
+      <c r="O62" s="281"/>
+      <c r="P62" s="281"/>
+      <c r="Q62" s="281"/>
+      <c r="R62" s="281"/>
+      <c r="S62" s="281"/>
+      <c r="T62" s="281"/>
+      <c r="U62" s="281"/>
+      <c r="V62" s="281"/>
+      <c r="W62" s="282"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B63" s="198"/>
-      <c r="C63" s="199"/>
-      <c r="D63" s="199"/>
-      <c r="E63" s="199"/>
-      <c r="F63" s="199"/>
-      <c r="G63" s="199"/>
-      <c r="H63" s="199"/>
-      <c r="I63" s="199"/>
-      <c r="J63" s="199"/>
-      <c r="K63" s="199"/>
-      <c r="L63" s="199"/>
-      <c r="M63" s="199"/>
-      <c r="N63" s="199"/>
-      <c r="O63" s="199"/>
-      <c r="P63" s="199"/>
-      <c r="Q63" s="199"/>
-      <c r="R63" s="199"/>
-      <c r="S63" s="199"/>
-      <c r="T63" s="199"/>
-      <c r="U63" s="199"/>
-      <c r="V63" s="199"/>
-      <c r="W63" s="200"/>
+      <c r="B63" s="280"/>
+      <c r="C63" s="281"/>
+      <c r="D63" s="281"/>
+      <c r="E63" s="281"/>
+      <c r="F63" s="281"/>
+      <c r="G63" s="281"/>
+      <c r="H63" s="281"/>
+      <c r="I63" s="281"/>
+      <c r="J63" s="281"/>
+      <c r="K63" s="281"/>
+      <c r="L63" s="281"/>
+      <c r="M63" s="281"/>
+      <c r="N63" s="281"/>
+      <c r="O63" s="281"/>
+      <c r="P63" s="281"/>
+      <c r="Q63" s="281"/>
+      <c r="R63" s="281"/>
+      <c r="S63" s="281"/>
+      <c r="T63" s="281"/>
+      <c r="U63" s="281"/>
+      <c r="V63" s="281"/>
+      <c r="W63" s="282"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B64" s="201"/>
-      <c r="C64" s="202"/>
-      <c r="D64" s="202"/>
-      <c r="E64" s="202"/>
-      <c r="F64" s="202"/>
-      <c r="G64" s="202"/>
-      <c r="H64" s="202"/>
-      <c r="I64" s="202"/>
-      <c r="J64" s="202"/>
-      <c r="K64" s="202"/>
-      <c r="L64" s="202"/>
-      <c r="M64" s="202"/>
-      <c r="N64" s="202"/>
-      <c r="O64" s="202"/>
-      <c r="P64" s="202"/>
-      <c r="Q64" s="202"/>
-      <c r="R64" s="202"/>
-      <c r="S64" s="202"/>
-      <c r="T64" s="202"/>
-      <c r="U64" s="202"/>
-      <c r="V64" s="202"/>
-      <c r="W64" s="203"/>
+      <c r="B64" s="283"/>
+      <c r="C64" s="284"/>
+      <c r="D64" s="284"/>
+      <c r="E64" s="284"/>
+      <c r="F64" s="284"/>
+      <c r="G64" s="284"/>
+      <c r="H64" s="284"/>
+      <c r="I64" s="284"/>
+      <c r="J64" s="284"/>
+      <c r="K64" s="284"/>
+      <c r="L64" s="284"/>
+      <c r="M64" s="284"/>
+      <c r="N64" s="284"/>
+      <c r="O64" s="284"/>
+      <c r="P64" s="284"/>
+      <c r="Q64" s="284"/>
+      <c r="R64" s="284"/>
+      <c r="S64" s="284"/>
+      <c r="T64" s="284"/>
+      <c r="U64" s="284"/>
+      <c r="V64" s="284"/>
+      <c r="W64" s="285"/>
     </row>
     <row r="66" spans="2:23" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:23" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -8181,12 +8181,18 @@
     <row r="101" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B54:W56"/>
+    <mergeCell ref="B60:W64"/>
+    <mergeCell ref="B41:W43"/>
+    <mergeCell ref="B47:W48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="B21:W22"/>
+    <mergeCell ref="B26:W27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="T29:U29"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="T19:U19"/>
@@ -8194,18 +8200,12 @@
     <mergeCell ref="B6:X7"/>
     <mergeCell ref="B13:H15"/>
     <mergeCell ref="J13:P15"/>
-    <mergeCell ref="B21:W22"/>
-    <mergeCell ref="B26:W27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="B54:W56"/>
-    <mergeCell ref="B60:W64"/>
-    <mergeCell ref="B41:W43"/>
-    <mergeCell ref="B47:W48"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
